--- a/src/test/resources/TestData.xlsx
+++ b/src/test/resources/TestData.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\De Harteloos\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\De Harteloos\Documents\PAWK\UI_Automation\Nouveau dossier\LaHalleTestAutomation\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="450" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="900" windowWidth="20490" windowHeight="7755" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="credentials" sheetId="2" r:id="rId1"/>
@@ -42,7 +42,7 @@
     <t>new_email</t>
   </si>
   <si>
-    <t>email@111.222.333.44444</t>
+    <t>email@</t>
   </si>
 </sst>
 </file>
@@ -373,7 +373,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -410,8 +410,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/src/test/resources/TestData.xlsx
+++ b/src/test/resources/TestData.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="900" windowWidth="20490" windowHeight="7755" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="1350" windowWidth="20490" windowHeight="7755" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="credentials" sheetId="2" r:id="rId1"/>
@@ -42,7 +42,7 @@
     <t>new_email</t>
   </si>
   <si>
-    <t>email@</t>
+    <t>email@111.222.333.44444</t>
   </si>
 </sst>
 </file>
@@ -411,7 +411,7 @@
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -431,8 +431,9 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1"/>
+    <hyperlink ref="A2" r:id="rId1" display="mailto:email@111.222.333.44444"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>